--- a/results/results .xlsx
+++ b/results/results .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\MEGA\MEGAsync\University\intership_thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD2F85C-A51A-4F69-9B77-049C6F622D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B04FC-3702-4138-8CAB-131AA6F047BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFBC2E55-E48C-4038-8B72-A810FBB279EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>knn</t>
   </si>
@@ -77,9 +77,6 @@
     <t>knn5_cv</t>
   </si>
   <si>
-    <t>acc</t>
-  </si>
-  <si>
     <t>SMOTE (Oversampling)</t>
   </si>
   <si>
@@ -123,13 +120,43 @@
   </si>
   <si>
     <t>mixed</t>
+  </si>
+  <si>
+    <t>1.nn</t>
+  </si>
+  <si>
+    <t>2.nn</t>
+  </si>
+  <si>
+    <t>3.nn</t>
+  </si>
+  <si>
+    <t>4.nn</t>
+  </si>
+  <si>
+    <t>5.nn</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +173,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,14 +231,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +669,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -866,6 +911,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>Measures</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>knn!$K$3:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.nn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.nn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.nn</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30672300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13441500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35467300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26454100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A121-4AE1-B66D-0EF0E4AF15C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>knn!$K$3:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.nn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.nn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.nn</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5858319999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23632900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4866870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.276186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A121-4AE1-B66D-0EF0E4AF15C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>knn!$K$3:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.nn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.nn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.nn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.nn</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.259298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48613600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.219298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.173529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1296839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A121-4AE1-B66D-0EF0E4AF15C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2107814944"/>
+        <c:axId val="2111116064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2107814944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111116064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2111116064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107814944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -903,6 +1494,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -1447,6 +2078,509 @@
           <a:schemeClr val="lt1"/>
         </a:bgClr>
       </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -1485,6 +2619,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16042</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1155031</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8E93C3-0762-9EE0-C023-B53688265882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1790,19 +2960,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8CBBC0-79E4-42C1-8FF2-A506756889AD}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1814,16 +2992,41 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,16 +3043,46 @@
         <v>30.890052356020899</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="7">
+        <v>0.30672300000000002</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.5858319999999999</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1.5858319999999999</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1.259298</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1.0113129999999999</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1866,16 +3099,46 @@
         <v>97.796432318992601</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.13441500000000001</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.23632900000000001</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.23632900000000001</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.48613600000000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.26850299999999999</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1892,16 +3155,46 @@
         <v>28.3464566929133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.37833</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.4866870000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.4866870000000001</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1.219298</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.95150999999999997</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1918,16 +3211,46 @@
         <v>96.988906497622807</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.35467300000000002</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.37717</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.37717</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1.173529</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.94141699999999995</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1943,17 +3266,47 @@
       <c r="F7" s="3">
         <v>74.015748031496003</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.26454100000000003</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.276186</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1.276186</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1.1296839999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.91416399999999998</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>34.83</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
+      <c r="S7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1969,17 +3322,17 @@
       <c r="F8" s="2">
         <v>96.482939632545893</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1996,16 +3349,16 @@
         <v>45.378151260504197</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2022,16 +3375,16 @@
         <v>97.310924369747895</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2048,16 +3401,16 @@
         <v>42.574257425742502</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2074,13 +3427,13 @@
         <v>96.329365079365004</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/results/results .xlsx
+++ b/results/results .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B04FC-3702-4138-8CAB-131AA6F047BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE02A5B-69CB-49AC-85F6-BC09E035778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFBC2E55-E48C-4038-8B72-A810FBB279EE}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EFBC2E55-E48C-4038-8B72-A810FBB279EE}"/>
   </bookViews>
   <sheets>
     <sheet name="knn" sheetId="1" r:id="rId1"/>
+    <sheet name="knnWithMeans" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>knn</t>
   </si>
@@ -122,21 +123,6 @@
     <t>mixed</t>
   </si>
   <si>
-    <t>1.nn</t>
-  </si>
-  <si>
-    <t>2.nn</t>
-  </si>
-  <si>
-    <t>3.nn</t>
-  </si>
-  <si>
-    <t>4.nn</t>
-  </si>
-  <si>
-    <t>5.nn</t>
-  </si>
-  <si>
     <t>MAE</t>
   </si>
   <si>
@@ -146,10 +132,37 @@
     <t>ACC</t>
   </si>
   <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
+    <t>UserBased</t>
+  </si>
+  <si>
+    <t>ItemBased</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Train_loss</t>
+  </si>
+  <si>
+    <t>Valid_loss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>nn</t>
   </si>
 </sst>
 </file>
@@ -992,11 +1005,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>knn!$L$2</c:f>
+              <c:f>knn!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>train_loss</c:v>
+                  <c:v>Train_loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1015,31 +1028,32 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>knn!$K$3:$K$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.nn</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.nn</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.nn</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.nn</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.nn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>knn!$L$3:$L$7</c:f>
+              <c:f>knn!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1072,11 +1086,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>knn!$M$2</c:f>
+              <c:f>knn!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>valid_loss</c:v>
+                  <c:v>Valid_loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1095,31 +1109,32 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>knn!$K$3:$K$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.nn</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.nn</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.nn</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.nn</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.nn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>knn!$M$3:$M$7</c:f>
+              <c:f>knn!$P$3:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1152,7 +1167,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>knn!$O$2</c:f>
+              <c:f>knn!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1172,31 +1187,32 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>knn!$K$3:$K$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.nn</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.nn</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.nn</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.nn</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.nn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>knn!$O$3:$O$7</c:f>
+              <c:f>knn!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2627,15 +2643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>16042</xdr:colOff>
+      <xdr:colOff>320641</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12033</xdr:rowOff>
+      <xdr:rowOff>51636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1155031</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120317</xdr:rowOff>
+      <xdr:colOff>1457725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2960,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8CBBC0-79E4-42C1-8FF2-A506756889AD}">
-  <dimension ref="B2:T12"/>
+  <dimension ref="B1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,6 +2996,11 @@
     <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -2992,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -3000,30 +3021,32 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="R2" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -3051,23 +3074,23 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
+      <c r="K3" s="6">
+        <v>1</v>
       </c>
       <c r="L3" s="7">
-        <v>0.30672300000000002</v>
+        <v>1.259298</v>
       </c>
       <c r="M3" s="7">
-        <v>1.5858319999999999</v>
+        <v>1.0113129999999999</v>
       </c>
       <c r="N3" s="7">
         <v>1.5858319999999999</v>
       </c>
       <c r="O3" s="7">
-        <v>1.259298</v>
+        <v>0.30672300000000002</v>
       </c>
       <c r="P3" s="7">
-        <v>1.0113129999999999</v>
+        <v>1.5858319999999999</v>
       </c>
       <c r="Q3" s="8">
         <v>0.23680000000000001</v>
@@ -3107,23 +3130,23 @@
       <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>29</v>
+      <c r="K4" s="6">
+        <v>2</v>
       </c>
       <c r="L4" s="9">
-        <v>0.13441500000000001</v>
+        <v>0.48613600000000001</v>
       </c>
       <c r="M4" s="9">
-        <v>0.23632900000000001</v>
+        <v>0.26850299999999999</v>
       </c>
       <c r="N4" s="9">
         <v>0.23632900000000001</v>
       </c>
       <c r="O4" s="9">
-        <v>0.48613600000000001</v>
+        <v>0.13441500000000001</v>
       </c>
       <c r="P4" s="9">
-        <v>0.26850299999999999</v>
+        <v>0.23632900000000001</v>
       </c>
       <c r="Q4" s="10">
         <v>0.79</v>
@@ -3163,23 +3186,23 @@
       <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>30</v>
+      <c r="K5" s="6">
+        <v>3</v>
       </c>
       <c r="L5" s="7">
-        <v>0.37833</v>
+        <v>1.219298</v>
       </c>
       <c r="M5" s="7">
-        <v>1.4866870000000001</v>
+        <v>0.95150999999999997</v>
       </c>
       <c r="N5" s="7">
         <v>1.4866870000000001</v>
       </c>
       <c r="O5" s="7">
-        <v>1.219298</v>
+        <v>0.37833</v>
       </c>
       <c r="P5" s="7">
-        <v>0.95150999999999997</v>
+        <v>1.4866870000000001</v>
       </c>
       <c r="Q5" s="8">
         <v>0.32540000000000002</v>
@@ -3219,23 +3242,23 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>31</v>
+      <c r="K6" s="6">
+        <v>4</v>
       </c>
       <c r="L6" s="7">
-        <v>0.35467300000000002</v>
+        <v>1.173529</v>
       </c>
       <c r="M6" s="7">
-        <v>1.37717</v>
+        <v>0.94141699999999995</v>
       </c>
       <c r="N6" s="7">
         <v>1.37717</v>
       </c>
       <c r="O6" s="7">
-        <v>1.173529</v>
+        <v>0.35467300000000002</v>
       </c>
       <c r="P6" s="7">
-        <v>0.94141699999999995</v>
+        <v>1.37717</v>
       </c>
       <c r="Q6" s="8">
         <v>0.31929999999999997</v>
@@ -3275,23 +3298,23 @@
       <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>32</v>
+      <c r="K7" s="6">
+        <v>5</v>
       </c>
       <c r="L7" s="7">
-        <v>0.26454100000000003</v>
+        <v>1.1296839999999999</v>
       </c>
       <c r="M7" s="7">
-        <v>1.276186</v>
+        <v>0.91416399999999998</v>
       </c>
       <c r="N7" s="7">
         <v>1.276186</v>
       </c>
       <c r="O7" s="7">
-        <v>1.1296839999999999</v>
+        <v>0.26454100000000003</v>
       </c>
       <c r="P7" s="7">
-        <v>0.91416399999999998</v>
+        <v>1.276186</v>
       </c>
       <c r="Q7" s="6">
         <v>34.83</v>
@@ -3441,4 +3464,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA386BA-931B-4EA3-85F5-3AC627CC508D}">
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="AN3" workbookViewId="0">
+      <selection activeCell="AQ27" sqref="AP27:AQ28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.3151999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30.890052356020899</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F4" s="2">
+        <v>97.796432318992601</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1092</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>28.3464566929133</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>96.988906497622807</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>74.015748031496003</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.2089</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F8" s="2">
+        <v>96.482939632545893</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45.378151260504197</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>97.310924369747895</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42.574257425742502</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1792</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F12" s="1">
+        <v>96.329365079365004</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/results .xlsx
+++ b/results/results .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bbruno\all_here\python course\vinnie\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E2ECD9-42E8-451F-B06C-7848DB9E99FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085F76DA-EB51-4132-BABB-DE6F7C459520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EFBC2E55-E48C-4038-8B72-A810FBB279EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFBC2E55-E48C-4038-8B72-A810FBB279EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Knn" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="44">
   <si>
     <t>upsampled_df_smote.csv</t>
   </si>
@@ -166,13 +166,28 @@
   </si>
   <si>
     <t>_rmse</t>
+  </si>
+  <si>
+    <t>upsampled_df_smote_auto.csv</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>keeping the distribution with smotennn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3 </t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +201,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,9 +275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -238,7 +284,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +291,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA386BA-931B-4EA3-85F5-3AC627CC508D}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,625 +632,931 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+    <row r="3" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.53038300000000005</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.242089</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.281306</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.382353</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>0.33921699999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>78.740156999999996</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+    <row r="4" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.54357299999999997</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.27381100000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.29547200000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.41450999999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>0.36451099999999997</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>75.590551000000005</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+    <row r="5" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.57087500000000002</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.29026200000000002</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.32589800000000002</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.363736</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.309087</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>75.328084000000004</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="6" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.62986200000000003</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.30493900000000002</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.39672600000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.13026199999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>76.628352000000007</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.70368900000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.371008</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.49517800000000001</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.23214299999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.14891599999999999</v>
+      </c>
+      <c r="L7" s="7">
+        <v>71.264368000000005</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.72296899999999997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.382054</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.52268400000000004</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.20114899999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.14535799999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>71.264368000000005</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.31184200000000001</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.10988000000000001</v>
+      </c>
+      <c r="W8" s="13">
+        <v>9.7244999999999998E-2</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0.66317700000000002</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0.56264000000000003</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>90.575396999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.82150400000000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H9" s="2">
         <v>0.67564299999999999</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I9" s="2">
         <v>0.67486900000000005</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J9" s="2">
         <v>0.65081999999999995</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K9" s="2">
         <v>0.76092899999999997</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L9" s="2">
         <v>46.218487000000003</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="b">
+      <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G10" s="2">
         <v>0.82555299999999998</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H10" s="2">
         <v>0.67120400000000002</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I10" s="2">
         <v>0.68153699999999995</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J10" s="2">
         <v>0.64669100000000002</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K10" s="2">
         <v>0.74203399999999997</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L10" s="2">
         <v>43.564355999999997</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="O10" s="13">
+        <v>14</v>
+      </c>
+      <c r="P10" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="S10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0.38500499999999999</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0.13651199999999999</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0.148229</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0.712063</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0.64848300000000003</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>89.917355000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="b">
+      <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G11" s="2">
         <v>0.83064899999999997</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H11" s="2">
         <v>0.65904399999999996</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I11" s="2">
         <v>0.68997799999999998</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J11" s="2">
         <v>0.532698</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K11" s="2">
         <v>0.59528000000000003</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L11" s="2">
         <v>48.019801999999999</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.86743199999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H12" s="2">
         <v>0.70004200000000005</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I12" s="2">
         <v>0.75243899999999997</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J12" s="2">
         <v>0.62047600000000003</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K12" s="2">
         <v>0.65194399999999997</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L12" s="2">
         <v>49.009900999999999</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="O12" s="13">
+        <v>5</v>
+      </c>
+      <c r="P12" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="Q12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0.50665700000000002</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0.25280900000000001</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0.25670199999999999</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0.641957</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.65000999999999998</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>80.693068999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="b">
+      <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G13" s="2">
         <v>0.88336400000000004</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H13" s="2">
         <v>0.73000299999999996</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I13" s="2">
         <v>0.78033200000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J13" s="2">
         <v>0.57729900000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K13" s="2">
         <v>0.63013699999999995</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L13" s="2">
         <v>40.336134000000001</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.92541099999999998</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H14" s="2">
         <v>0.77630900000000003</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I14" s="2">
         <v>0.85638599999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J14" s="2">
         <v>0.62132399999999999</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K14" s="2">
         <v>0.68137300000000001</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L14" s="2">
         <v>41.176470999999999</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3" t="b">
+      <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G15" s="2">
         <v>0.97960800000000003</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H15" s="2">
         <v>0.80199299999999996</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I15" s="2">
         <v>0.95963200000000004</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J15" s="2">
         <v>0.69983499999999998</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K15" s="2">
         <v>0.80251600000000001</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L15" s="2">
         <v>45.669291000000001</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>1.0127170000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H16" s="2">
         <v>0.86587800000000004</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I16" s="2">
         <v>1.025596</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J16" s="2">
         <v>0.658466</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K16" s="2">
         <v>0.68650800000000001</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L16" s="2">
         <v>28.346457000000001</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="M16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="b">
+      <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G17" s="2">
         <v>1.036843</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H17" s="2">
         <v>0.83845400000000003</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I17" s="2">
         <v>1.0750440000000001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J17" s="2">
         <v>0.62833899999999998</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K17" s="2">
         <v>0.67528699999999997</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L17" s="2">
         <v>32.283465</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+    <row r="18" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="b">
+      <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G18" s="2">
         <v>1.25014</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H18" s="2">
         <v>1.0130030000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I18" s="2">
         <v>1.5628489999999999</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J18" s="2">
         <v>6.8273E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K18" s="2">
         <v>5.5220999999999999E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L18" s="2">
         <v>33.507852999999997</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+    <row r="19" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>1.2771840000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H19" s="2">
         <v>0.97076099999999999</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I19" s="2">
         <v>1.6311979999999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J19" s="2">
         <v>7.3931999999999998E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K19" s="2">
         <v>4.1346000000000001E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L19" s="2">
         <v>35.602094000000001</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+    <row r="20" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
         <v>1.360535</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H20" s="2">
         <v>1.0270969999999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I20" s="2">
         <v>1.8510549999999999</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J20" s="2">
         <v>5.7207000000000001E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K20" s="2">
         <v>6.0565000000000001E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L20" s="2">
         <v>32.460732999999998</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:M2" xr:uid="{4AA386BA-931B-4EA3-85F5-3AC627CC508D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M17">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M20">
       <sortCondition ref="G2"/>
     </sortState>
   </autoFilter>
@@ -1201,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7964AA6C-4B0F-477A-BF46-EF0BC6F06658}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,360 +1582,424 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.50297800000000004</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.26706600000000003</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.25298700000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.36086099999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.33901399999999998</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>78.477689999999996</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.52590099999999995</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.27591599999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.27657100000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.32176500000000002</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>77.165353999999994</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.815577</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.63243000000000005</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.66516699999999995</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.56770799999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.59588700000000006</v>
-      </c>
-      <c r="J5" s="4">
-        <v>49.504950000000001</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>4</v>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60742300000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.36293700000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.36896200000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.32131100000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.31675700000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>70.114942999999997</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.82699199999999995</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.61091099999999998</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.68391599999999997</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.59589000000000003</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.63356199999999996</v>
-      </c>
-      <c r="J6" s="3">
-        <v>53.781512999999997</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>3</v>
+      <c r="E6" s="7">
+        <v>0.63061900000000004</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.37189299999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.39767999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.156085</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.15460299999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>70.114942999999997</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.815577</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.63243000000000005</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.66516699999999995</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.56770799999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.59588700000000006</v>
+      </c>
+      <c r="J7" s="3">
+        <v>49.504950000000001</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
+        <v>0.82699199999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.61091099999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.68391599999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.59589000000000003</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.63356199999999996</v>
+      </c>
+      <c r="J8" s="2">
+        <v>53.781512999999997</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.82819699999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="2">
         <v>0.63908900000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="2">
         <v>0.68591000000000002</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H9" s="2">
         <v>0.56484100000000004</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I9" s="2">
         <v>0.58240099999999995</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J9" s="2">
         <v>53.465347000000001</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="10" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.86770199999999997</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="2">
         <v>0.71267000000000003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="2">
         <v>0.75290699999999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H10" s="2">
         <v>0.58755900000000005</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I10" s="2">
         <v>0.56690099999999999</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J10" s="2">
         <v>45.378151000000003</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+    <row r="11" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="2">
         <v>0.88656699999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="2">
         <v>0.73515799999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="2">
         <v>0.78600199999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H11" s="2">
         <v>0.66234599999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I11" s="2">
         <v>0.66402099999999997</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J11" s="2">
         <v>43.307087000000003</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="K11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.89862900000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="2">
         <v>0.74649600000000005</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G12" s="2">
         <v>0.80753399999999997</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H12" s="2">
         <v>0.709615</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I12" s="2">
         <v>0.68400300000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J12" s="2">
         <v>40.15748</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="2">
         <v>1.231198</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="2">
         <v>1.0148889999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="2">
         <v>1.5158499999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H13" s="2">
         <v>5.3344999999999997E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I13" s="2">
         <v>5.6961999999999999E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J13" s="2">
         <v>31.413613000000002</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="14" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="b">
+      <c r="D14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E14" s="2">
         <v>1.346487</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="2">
         <v>0.94555</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G14" s="2">
         <v>1.8130280000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H14" s="2">
         <v>4.8193E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I14" s="2">
         <v>4.8193E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J14" s="2">
         <v>41.884816999999998</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:K2" xr:uid="{7964AA6C-4B0F-477A-BF46-EF0BC6F06658}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K12">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K14">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
@@ -1579,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AAFD7A-25B8-43BF-B453-B8B67C076317}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,99 +2025,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="b">
+      <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.65380499999999997</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.40063900000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.42746099999999998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.34074100000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.272619</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>71.391075999999998</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="b">
+      <c r="D4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.93194500000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.74228499999999997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.86852200000000002</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.65773800000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.71285699999999996</v>
-      </c>
-      <c r="J4" s="4">
-        <v>46.039603999999997</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>4</v>
+      <c r="E4" s="7">
+        <v>0.74033099999999996</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.441805</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.54808999999999997</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.21126800000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.13724</v>
+      </c>
+      <c r="J4" s="7">
+        <v>66.666667000000004</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="72" x14ac:dyDescent="0.3">
@@ -1701,94 +2131,126 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
+        <v>0.93194500000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.74228499999999997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.86852200000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.65773800000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.71285699999999996</v>
+      </c>
+      <c r="J5" s="3">
+        <v>46.039603999999997</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.94594299999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="2">
         <v>0.74597599999999997</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="2">
         <v>0.89480800000000005</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="2">
         <v>0.608514</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="2">
         <v>0.69696999999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="2">
         <v>47.058824000000001</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="7" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="b">
+      <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>1.0107139999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="2">
         <v>0.85650700000000002</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="2">
         <v>1.0215430000000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="2">
         <v>0.72777800000000004</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="2">
         <v>0.76410900000000004</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="2">
         <v>37.007874000000001</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="b">
+      <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
         <v>1.5012559999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="2">
         <v>1.125402</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="2">
         <v>2.2537690000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="2">
         <v>4.8779999999999997E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="2">
         <v>3.5061000000000002E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="2">
         <v>34.554974000000001</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:K2" xr:uid="{72AAFD7A-25B8-43BF-B453-B8B67C076317}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K7">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K8">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
@@ -1798,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D2748-BAF9-4AA9-AC4E-372234957326}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,90 +2275,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.60636199999999996</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.29994900000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.367674</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.30658400000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.25840099999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>75.853018000000006</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.92143799999999998</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.72212900000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.849047</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.61924299999999999</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.69610700000000003</v>
-      </c>
-      <c r="I4" s="4">
-        <v>41.089109000000001</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>4</v>
+      <c r="D4" s="10">
+        <v>0.80829300000000004</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.42915599999999998</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.65333799999999997</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.19666700000000001</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.148342</v>
+      </c>
+      <c r="I4" s="10">
+        <v>68.582374999999999</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1907,88 +2369,117 @@
         <v>31</v>
       </c>
       <c r="D5" s="3">
+        <v>0.92143799999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.72212900000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.849047</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.61924299999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.69610700000000003</v>
+      </c>
+      <c r="I5" s="3">
+        <v>41.089109000000001</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
         <v>1.0500849999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="2">
         <v>0.86209000000000002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="2">
         <v>1.102679</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="2">
         <v>0.63787899999999997</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="2">
         <v>0.70016199999999995</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="2">
         <v>35.433070999999998</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <v>1.085947</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>0.820963</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="2">
         <v>1.179281</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="2">
         <v>0.62341800000000003</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="2">
         <v>0.68037999999999998</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="2">
         <v>45.378151000000003</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="2">
         <v>1.394625</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
         <v>1.055579</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="2">
         <v>1.944979</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="2">
         <v>0.105364</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="2">
         <v>8.4401000000000004E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="2">
         <v>32.984293000000001</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:J2" xr:uid="{7E5D2748-BAF9-4AA9-AC4E-372234957326}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J7">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J8">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -1998,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC87FC6-BECB-4A4D-9E4C-D2F636917DC8}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,108 +2506,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.74812500000000004</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.46215000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.55969100000000005</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.35457899999999998</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.31428600000000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>60.367454000000002</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.83805200000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.66399399999999997</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.70233100000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.69788700000000004</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.75758400000000004</v>
-      </c>
-      <c r="K4" s="4">
-        <v>51.980198000000001</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>4</v>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.830036</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.55007899999999998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.68896000000000002</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.14360500000000001</v>
+      </c>
+      <c r="K4" s="7">
+        <v>52.873562999999997</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2133,100 +2624,135 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
+        <v>0.83805200000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.66399399999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.70233100000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.69788700000000004</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.75758400000000004</v>
+      </c>
+      <c r="K5" s="3">
+        <v>51.980198000000001</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.90808299999999997</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="2">
         <v>0.71893600000000002</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="2">
         <v>0.82461399999999996</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="2">
         <v>0.65439000000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="2">
         <v>0.72656200000000004</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="2">
         <v>44.537815000000002</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="7" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="2">
         <v>1.0538689999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="2">
         <v>0.88717699999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="2">
         <v>1.1106400000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="2">
         <v>0.71255000000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="2">
         <v>0.75595199999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="2">
         <v>33.070866000000002</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="2">
         <v>1.43997</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="2">
         <v>1.07718</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="2">
         <v>2.073512</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="2">
         <v>8.8888999999999996E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="2">
         <v>6.5674999999999997E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="2">
         <v>36.125653999999997</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:L2" xr:uid="{4CC87FC6-BECB-4A4D-9E4C-D2F636917DC8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L7">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L8">
       <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
@@ -2236,97 +2762,96 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADB00A5-4388-40B1-AB52-2C5AC0FD364D}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.13441500000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.23632900000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.23632900000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.48613600000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.26850299999999999</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>79</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.26454100000000003</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.276186</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.276186</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.1296839999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.91416399999999998</v>
-      </c>
-      <c r="H4" s="8">
-        <v>34.83</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
+      <c r="C4" s="7">
+        <v>0.18165500000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.55377399999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.55377399999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.74416000000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.42905700000000002</v>
+      </c>
+      <c r="H4" s="9">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2334,82 +2859,111 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
+        <v>0.26454100000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.276186</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.276186</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.1296839999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.91416399999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>34.83</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.35467300000000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="2">
         <v>1.37717</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="2">
         <v>1.37717</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="2">
         <v>1.173529</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="2">
         <v>0.94141699999999995</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="1">
         <v>31.93</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="2">
         <v>0.37833</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <v>1.4866870000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>1.4866870000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="2">
         <v>1.219298</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="2">
         <v>0.95150999999999997</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="1">
         <v>32.54</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="2">
         <v>0.30672300000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="2">
         <v>1.5858319999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
         <v>1.5858319999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="2">
         <v>1.259298</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="2">
         <v>1.0113129999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="1">
         <v>27.89</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2" xr:uid="{0ADB00A5-4388-40B1-AB52-2C5AC0FD364D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I7">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I8">
       <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
